--- a/projects/alignment-opti/plots_pub/max-single-anno_params-agg.xlsx
+++ b/projects/alignment-opti/plots_pub/max-single-anno_params-agg.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,56 +417,16 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>0.95</v>
-      </c>
       <c r="E2">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0.86</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0.8</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/projects/alignment-opti/plots_pub/max-single-anno_params-agg.xlsx
+++ b/projects/alignment-opti/plots_pub/max-single-anno_params-agg.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,16 +417,36 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
+        <v>0.65</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>0.8</v>
       </c>
-      <c r="F2">
-        <v>9</v>
+      <c r="F3">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
